--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.48892922013237</v>
+        <v>1.4893325</v>
       </c>
       <c r="H2">
-        <v>1.48892922013237</v>
+        <v>2.978665</v>
       </c>
       <c r="I2">
-        <v>0.01900702669596011</v>
+        <v>0.01753267065203303</v>
       </c>
       <c r="J2">
-        <v>0.01900702669596011</v>
+        <v>0.01183010973253717</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>0.8291085691296535</v>
+        <v>0.848672295805</v>
       </c>
       <c r="R2">
-        <v>0.8291085691296535</v>
+        <v>3.39468918322</v>
       </c>
       <c r="S2">
-        <v>0.0001532453815322361</v>
+        <v>0.0001344861899310219</v>
       </c>
       <c r="T2">
-        <v>0.0001532453815322361</v>
+        <v>6.727852070033314E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.48892922013237</v>
+        <v>1.4893325</v>
       </c>
       <c r="H3">
-        <v>1.48892922013237</v>
+        <v>2.978665</v>
       </c>
       <c r="I3">
-        <v>0.01900702669596011</v>
+        <v>0.01753267065203303</v>
       </c>
       <c r="J3">
-        <v>0.01900702669596011</v>
+        <v>0.01183010973253717</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>69.47768269534046</v>
+        <v>74.61915498798751</v>
       </c>
       <c r="R3">
-        <v>69.47768269534046</v>
+        <v>447.714929927925</v>
       </c>
       <c r="S3">
-        <v>0.01284166439601485</v>
+        <v>0.01182464173723028</v>
       </c>
       <c r="T3">
-        <v>0.01284166439601485</v>
+        <v>0.008873153492194696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.48892922013237</v>
+        <v>1.4893325</v>
       </c>
       <c r="H4">
-        <v>1.48892922013237</v>
+        <v>2.978665</v>
       </c>
       <c r="I4">
-        <v>0.01900702669596011</v>
+        <v>0.01753267065203303</v>
       </c>
       <c r="J4">
-        <v>0.01900702669596011</v>
+        <v>0.01183010973253717</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>0.5899287810148617</v>
+        <v>0.6033951192683334</v>
       </c>
       <c r="R4">
-        <v>0.5899287810148617</v>
+        <v>3.620370715610001</v>
       </c>
       <c r="S4">
-        <v>0.0001090374222261022</v>
+        <v>9.561795644147928E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001090374222261022</v>
+        <v>7.175124819586821E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.48892922013237</v>
+        <v>1.4893325</v>
       </c>
       <c r="H5">
-        <v>1.48892922013237</v>
+        <v>2.978665</v>
       </c>
       <c r="I5">
-        <v>0.01900702669596011</v>
+        <v>0.01753267065203303</v>
       </c>
       <c r="J5">
-        <v>0.01900702669596011</v>
+        <v>0.01183010973253717</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>0.4207180788695714</v>
+        <v>0.4231829081033334</v>
       </c>
       <c r="R5">
-        <v>0.4207180788695714</v>
+        <v>2.539097448620001</v>
       </c>
       <c r="S5">
-        <v>7.776195412086587E-05</v>
+        <v>6.706034500721331E-05</v>
       </c>
       <c r="T5">
-        <v>7.776195412086587E-05</v>
+        <v>5.032175584779392E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.48892922013237</v>
+        <v>1.4893325</v>
       </c>
       <c r="H6">
-        <v>1.48892922013237</v>
+        <v>2.978665</v>
       </c>
       <c r="I6">
-        <v>0.01900702669596011</v>
+        <v>0.01753267065203303</v>
       </c>
       <c r="J6">
-        <v>0.01900702669596011</v>
+        <v>0.01183010973253717</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>1.351797513583227</v>
+        <v>1.532568318919167</v>
       </c>
       <c r="R6">
-        <v>1.351797513583227</v>
+        <v>9.195409913515</v>
       </c>
       <c r="S6">
-        <v>0.0002498547638228488</v>
+        <v>0.000242860848691811</v>
       </c>
       <c r="T6">
-        <v>0.0002498547638228488</v>
+        <v>0.0001822415964538025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.48892922013237</v>
+        <v>1.4893325</v>
       </c>
       <c r="H7">
-        <v>1.48892922013237</v>
+        <v>2.978665</v>
       </c>
       <c r="I7">
-        <v>0.01900702669596011</v>
+        <v>0.01753267065203303</v>
       </c>
       <c r="J7">
-        <v>0.01900702669596011</v>
+        <v>0.01183010973253717</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>30.16511114452387</v>
+        <v>32.61257873946126</v>
       </c>
       <c r="R7">
-        <v>30.16511114452387</v>
+        <v>130.450314957845</v>
       </c>
       <c r="S7">
-        <v>0.005575462778243206</v>
+        <v>0.005168003574731222</v>
       </c>
       <c r="T7">
-        <v>0.005575462778243206</v>
+        <v>0.002585363119144677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.26444881216101</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H8">
-        <v>75.26444881216101</v>
+        <v>243.259732</v>
       </c>
       <c r="I8">
-        <v>0.9607934134721912</v>
+        <v>0.9545647158615955</v>
       </c>
       <c r="J8">
-        <v>0.9607934134721912</v>
+        <v>0.9661339301558192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>41.91092405012719</v>
+        <v>46.20588870816266</v>
       </c>
       <c r="R8">
-        <v>41.91092405012719</v>
+        <v>277.235332248976</v>
       </c>
       <c r="S8">
-        <v>0.007746459010998299</v>
+        <v>0.007322088815027643</v>
       </c>
       <c r="T8">
-        <v>0.007746459010998299</v>
+        <v>0.005494459737808544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.26444881216101</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H9">
-        <v>75.26444881216101</v>
+        <v>243.259732</v>
       </c>
       <c r="I9">
-        <v>0.9607934134721912</v>
+        <v>0.9545647158615955</v>
       </c>
       <c r="J9">
-        <v>0.9607934134721912</v>
+        <v>0.9661339301558192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>3512.053778047371</v>
+        <v>4062.633348484259</v>
       </c>
       <c r="R9">
-        <v>3512.053778047371</v>
+        <v>36563.70013635833</v>
       </c>
       <c r="S9">
-        <v>0.6491381722704613</v>
+        <v>0.6437915822456598</v>
       </c>
       <c r="T9">
-        <v>0.6491381722704613</v>
+        <v>0.7246470954290414</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.26444881216101</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H10">
-        <v>75.26444881216101</v>
+        <v>243.259732</v>
       </c>
       <c r="I10">
-        <v>0.9607934134721912</v>
+        <v>0.9545647158615955</v>
       </c>
       <c r="J10">
-        <v>0.9607934134721912</v>
+        <v>0.9661339301558192</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>29.82053407318197</v>
+        <v>32.85179434485422</v>
       </c>
       <c r="R10">
-        <v>29.82053407318197</v>
+        <v>295.666149103688</v>
       </c>
       <c r="S10">
-        <v>0.005511774080850437</v>
+        <v>0.005205911251817378</v>
       </c>
       <c r="T10">
-        <v>0.005511774080850437</v>
+        <v>0.005859735622096604</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.26444881216101</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H11">
-        <v>75.26444881216101</v>
+        <v>243.259732</v>
       </c>
       <c r="I11">
-        <v>0.9607934134721912</v>
+        <v>0.9545647158615955</v>
       </c>
       <c r="J11">
-        <v>0.9607934134721912</v>
+        <v>0.9661339301558192</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>21.26703800508022</v>
+        <v>23.04015631436622</v>
       </c>
       <c r="R11">
-        <v>21.26703800508022</v>
+        <v>207.361406829296</v>
       </c>
       <c r="S11">
-        <v>0.00393081856163935</v>
+        <v>0.003651094602063283</v>
       </c>
       <c r="T11">
-        <v>0.00393081856163935</v>
+        <v>0.004109645375127373</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.26444881216101</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H12">
-        <v>75.26444881216101</v>
+        <v>243.259732</v>
       </c>
       <c r="I12">
-        <v>0.9607934134721912</v>
+        <v>0.9545647158615955</v>
       </c>
       <c r="J12">
-        <v>0.9607934134721912</v>
+        <v>0.9661339301558192</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>68.332526079679</v>
+        <v>83.4405477021791</v>
       </c>
       <c r="R12">
-        <v>68.332526079679</v>
+        <v>750.964929319612</v>
       </c>
       <c r="S12">
-        <v>0.01263000337957472</v>
+        <v>0.01322253760573109</v>
       </c>
       <c r="T12">
-        <v>0.01263000337957472</v>
+        <v>0.01488319160180958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.26444881216101</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H13">
-        <v>75.26444881216101</v>
+        <v>243.259732</v>
       </c>
       <c r="I13">
-        <v>0.9607934134721912</v>
+        <v>0.9545647158615955</v>
       </c>
       <c r="J13">
-        <v>0.9607934134721912</v>
+        <v>0.9661339301558192</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N13">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O13">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P13">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q13">
-        <v>1524.8276633649</v>
+        <v>1775.588989024779</v>
       </c>
       <c r="R13">
-        <v>1524.8276633649</v>
+        <v>10653.53393414868</v>
       </c>
       <c r="S13">
-        <v>0.281836186168667</v>
+        <v>0.2813715013412963</v>
       </c>
       <c r="T13">
-        <v>0.281836186168667</v>
+        <v>0.2111398023899358</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.717240976172647</v>
+        <v>0.05555733333333333</v>
       </c>
       <c r="H14">
-        <v>0.717240976172647</v>
+        <v>0.166672</v>
       </c>
       <c r="I14">
-        <v>0.009155988207644962</v>
+        <v>0.0006540301965065219</v>
       </c>
       <c r="J14">
-        <v>0.009155988207644962</v>
+        <v>0.0006619569670780147</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N14">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O14">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P14">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q14">
-        <v>0.3993948345125441</v>
+        <v>0.03165845748266666</v>
       </c>
       <c r="R14">
-        <v>0.3993948345125441</v>
+        <v>0.189950744896</v>
       </c>
       <c r="S14">
-        <v>7.382074685481631E-05</v>
+        <v>5.016807249373634E-06</v>
       </c>
       <c r="T14">
-        <v>7.382074685481631E-05</v>
+        <v>3.764587693535836E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.717240976172647</v>
+        <v>0.05555733333333333</v>
       </c>
       <c r="H15">
-        <v>0.717240976172647</v>
+        <v>0.166672</v>
       </c>
       <c r="I15">
-        <v>0.009155988207644962</v>
+        <v>0.0006540301965065219</v>
       </c>
       <c r="J15">
-        <v>0.009155988207644962</v>
+        <v>0.0006619569670780147</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P15">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q15">
-        <v>33.46850896927739</v>
+        <v>2.78355657096</v>
       </c>
       <c r="R15">
-        <v>33.46850896927739</v>
+        <v>25.05200913864</v>
       </c>
       <c r="S15">
-        <v>0.006186034757421424</v>
+        <v>0.0004411006692881196</v>
       </c>
       <c r="T15">
-        <v>0.006186034757421424</v>
+        <v>0.0004964996865545719</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.717240976172647</v>
+        <v>0.05555733333333333</v>
       </c>
       <c r="H16">
-        <v>0.717240976172647</v>
+        <v>0.166672</v>
       </c>
       <c r="I16">
-        <v>0.009155988207644962</v>
+        <v>0.0006540301965065219</v>
       </c>
       <c r="J16">
-        <v>0.009155988207644962</v>
+        <v>0.0006619569670780147</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N16">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O16">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P16">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q16">
-        <v>0.284178112059499</v>
+        <v>0.02250875729422222</v>
       </c>
       <c r="R16">
-        <v>0.284178112059499</v>
+        <v>0.202578815648</v>
       </c>
       <c r="S16">
-        <v>5.252506707460939E-05</v>
+        <v>3.566885620686724E-06</v>
       </c>
       <c r="T16">
-        <v>5.252506707460939E-05</v>
+        <v>4.014860361706248E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.717240976172647</v>
+        <v>0.05555733333333333</v>
       </c>
       <c r="H17">
-        <v>0.717240976172647</v>
+        <v>0.166672</v>
       </c>
       <c r="I17">
-        <v>0.009155988207644962</v>
+        <v>0.0006540301965065219</v>
       </c>
       <c r="J17">
-        <v>0.009155988207644962</v>
+        <v>0.0006619569670780147</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N17">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O17">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P17">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q17">
-        <v>0.2026666153781743</v>
+        <v>0.01578620884622222</v>
       </c>
       <c r="R17">
-        <v>0.2026666153781743</v>
+        <v>0.142075879616</v>
       </c>
       <c r="S17">
-        <v>3.745917477379076E-05</v>
+        <v>2.501586409357269E-06</v>
       </c>
       <c r="T17">
-        <v>3.745917477379076E-05</v>
+        <v>2.815767362447104E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.717240976172647</v>
+        <v>0.05555733333333333</v>
       </c>
       <c r="H18">
-        <v>0.717240976172647</v>
+        <v>0.166672</v>
       </c>
       <c r="I18">
-        <v>0.009155988207644962</v>
+        <v>0.0006540301965065219</v>
       </c>
       <c r="J18">
-        <v>0.009155988207644962</v>
+        <v>0.0006619569670780147</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N18">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O18">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P18">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q18">
-        <v>0.6511824438128722</v>
+        <v>0.0571701812391111</v>
       </c>
       <c r="R18">
-        <v>0.6511824438128722</v>
+        <v>0.514531631152</v>
       </c>
       <c r="S18">
-        <v>0.0001203590286781761</v>
+        <v>9.059562672799507E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001203590286781761</v>
+        <v>1.019737747082943E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.717240976172647</v>
+        <v>0.05555733333333333</v>
       </c>
       <c r="H19">
-        <v>0.717240976172647</v>
+        <v>0.166672</v>
       </c>
       <c r="I19">
-        <v>0.009155988207644962</v>
+        <v>0.0006540301965065219</v>
       </c>
       <c r="J19">
-        <v>0.009155988207644962</v>
+        <v>0.0006619569670780147</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N19">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O19">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P19">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q19">
-        <v>14.53101562593501</v>
+        <v>1.216563734349333</v>
       </c>
       <c r="R19">
-        <v>14.53101562593501</v>
+        <v>7.299382406096</v>
       </c>
       <c r="S19">
-        <v>0.002685789432842145</v>
+        <v>0.0001927846852661851</v>
       </c>
       <c r="T19">
-        <v>0.002685789432842145</v>
+        <v>0.0001446646876349242</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.865106191985123</v>
+        <v>0.7523676666666667</v>
       </c>
       <c r="H20">
-        <v>0.865106191985123</v>
+        <v>2.257103</v>
       </c>
       <c r="I20">
-        <v>0.01104357162420372</v>
+        <v>0.008856997687826751</v>
       </c>
       <c r="J20">
-        <v>0.01104357162420372</v>
+        <v>0.008964343478584815</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N20">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O20">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P20">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q20">
-        <v>0.4817334143783017</v>
+        <v>0.4287246769673333</v>
       </c>
       <c r="R20">
-        <v>0.4817334143783017</v>
+        <v>2.572348061804</v>
       </c>
       <c r="S20">
-        <v>8.903951018227307E-05</v>
+        <v>6.793853012493387E-05</v>
       </c>
       <c r="T20">
-        <v>8.903951018227307E-05</v>
+        <v>5.098074167732323E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.865106191985123</v>
+        <v>0.7523676666666667</v>
       </c>
       <c r="H21">
-        <v>0.865106191985123</v>
+        <v>2.257103</v>
       </c>
       <c r="I21">
-        <v>0.01104357162420372</v>
+        <v>0.008856997687826751</v>
       </c>
       <c r="J21">
-        <v>0.01104357162420372</v>
+        <v>0.008964343478584815</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P21">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q21">
-        <v>40.3683215372542</v>
+        <v>37.695437067915</v>
       </c>
       <c r="R21">
-        <v>40.3683215372542</v>
+        <v>339.258933611235</v>
       </c>
       <c r="S21">
-        <v>0.007461337472710544</v>
+        <v>0.005973466712778527</v>
       </c>
       <c r="T21">
-        <v>0.007461337472710544</v>
+        <v>0.006723690434034415</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.865106191985123</v>
+        <v>0.7523676666666667</v>
       </c>
       <c r="H22">
-        <v>0.865106191985123</v>
+        <v>2.257103</v>
       </c>
       <c r="I22">
-        <v>0.01104357162420372</v>
+        <v>0.008856997687826751</v>
       </c>
       <c r="J22">
-        <v>0.01104357162420372</v>
+        <v>0.008964343478584815</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N22">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O22">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P22">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q22">
-        <v>0.3427638025942031</v>
+        <v>0.3048177475224444</v>
       </c>
       <c r="R22">
-        <v>0.3427638025942031</v>
+        <v>2.743359727702</v>
       </c>
       <c r="S22">
-        <v>6.335354820796057E-05</v>
+        <v>4.830342370109476E-05</v>
       </c>
       <c r="T22">
-        <v>6.335354820796057E-05</v>
+        <v>5.436998036255795E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.865106191985123</v>
+        <v>0.7523676666666667</v>
       </c>
       <c r="H23">
-        <v>0.865106191985123</v>
+        <v>2.257103</v>
       </c>
       <c r="I23">
-        <v>0.01104357162420372</v>
+        <v>0.008856997687826751</v>
       </c>
       <c r="J23">
-        <v>0.01104357162420372</v>
+        <v>0.008964343478584815</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N23">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O23">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P23">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q23">
-        <v>0.2444480302950827</v>
+        <v>0.2137797551204445</v>
       </c>
       <c r="R23">
-        <v>0.2444480302950827</v>
+        <v>1.924017796084</v>
       </c>
       <c r="S23">
-        <v>4.518169641727053E-05</v>
+        <v>3.387694507367476E-05</v>
       </c>
       <c r="T23">
-        <v>4.518169641727053E-05</v>
+        <v>3.813164155395896E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.865106191985123</v>
+        <v>0.7523676666666667</v>
       </c>
       <c r="H24">
-        <v>0.865106191985123</v>
+        <v>2.257103</v>
       </c>
       <c r="I24">
-        <v>0.01104357162420372</v>
+        <v>0.008856997687826751</v>
       </c>
       <c r="J24">
-        <v>0.01104357162420372</v>
+        <v>0.008964343478584815</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N24">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O24">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P24">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q24">
-        <v>0.7854291416263397</v>
+        <v>0.7742091508192221</v>
       </c>
       <c r="R24">
-        <v>0.7854291416263397</v>
+        <v>6.967882357373</v>
       </c>
       <c r="S24">
-        <v>0.0001451720473730179</v>
+        <v>0.0001226862705641247</v>
       </c>
       <c r="T24">
-        <v>0.0001451720473730179</v>
+        <v>0.0001380947686566522</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7523676666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.257103</v>
+      </c>
+      <c r="I25">
+        <v>0.008856997687826751</v>
+      </c>
+      <c r="J25">
+        <v>0.008964343478584815</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.8974465</v>
+      </c>
+      <c r="N25">
+        <v>43.794893</v>
+      </c>
+      <c r="O25">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P25">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q25">
+        <v>16.47493072916317</v>
+      </c>
+      <c r="R25">
+        <v>98.849584374979</v>
+      </c>
+      <c r="S25">
+        <v>0.002610725805584395</v>
+      </c>
+      <c r="T25">
+        <v>0.001959075912299908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.562294</v>
+      </c>
+      <c r="H26">
+        <v>3.124588</v>
+      </c>
+      <c r="I26">
+        <v>0.01839158560203802</v>
+      </c>
+      <c r="J26">
+        <v>0.01240965966598085</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.569834</v>
+      </c>
+      <c r="N26">
+        <v>1.139668</v>
+      </c>
+      <c r="O26">
+        <v>0.007670604929513537</v>
+      </c>
+      <c r="P26">
+        <v>0.005687058042690201</v>
+      </c>
+      <c r="Q26">
+        <v>0.8902482391959998</v>
+      </c>
+      <c r="R26">
+        <v>3.560992956783999</v>
+      </c>
+      <c r="S26">
+        <v>0.000141074587180563</v>
+      </c>
+      <c r="T26">
+        <v>7.057445481046458E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.562294</v>
+      </c>
+      <c r="H27">
+        <v>3.124588</v>
+      </c>
+      <c r="I27">
+        <v>0.01839158560203802</v>
+      </c>
+      <c r="J27">
+        <v>0.01240965966598085</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>50.102415</v>
+      </c>
+      <c r="N27">
+        <v>150.307245</v>
+      </c>
+      <c r="O27">
+        <v>0.6744347151618419</v>
+      </c>
+      <c r="P27">
+        <v>0.7500482829664925</v>
+      </c>
+      <c r="Q27">
+        <v>78.27470234000999</v>
+      </c>
+      <c r="R27">
+        <v>469.6482140400599</v>
+      </c>
+      <c r="S27">
+        <v>0.01240392379688514</v>
+      </c>
+      <c r="T27">
+        <v>0.009307843924667471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.562294</v>
+      </c>
+      <c r="H28">
+        <v>3.124588</v>
+      </c>
+      <c r="I28">
+        <v>0.01839158560203802</v>
+      </c>
+      <c r="J28">
+        <v>0.01240965966598085</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4051446666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.215434</v>
+      </c>
+      <c r="O28">
+        <v>0.005453701739979455</v>
+      </c>
+      <c r="P28">
+        <v>0.006065138009542361</v>
+      </c>
+      <c r="Q28">
+        <v>0.6329550818653333</v>
+      </c>
+      <c r="R28">
+        <v>3.797730491192</v>
+      </c>
+      <c r="S28">
+        <v>0.0001003022223988158</v>
+      </c>
+      <c r="T28">
+        <v>7.526629852562519E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.562294</v>
+      </c>
+      <c r="H29">
+        <v>3.124588</v>
+      </c>
+      <c r="I29">
+        <v>0.01839158560203802</v>
+      </c>
+      <c r="J29">
+        <v>0.01240965966598085</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.2841426666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.8524280000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.00382487906937539</v>
+      </c>
+      <c r="P29">
+        <v>0.004253701528176911</v>
+      </c>
+      <c r="Q29">
+        <v>0.4439143832773333</v>
+      </c>
+      <c r="R29">
+        <v>2.663486299664</v>
+      </c>
+      <c r="S29">
+        <v>7.034559082186099E-05</v>
+      </c>
+      <c r="T29">
+        <v>5.278698828533811E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.865106191985123</v>
-      </c>
-      <c r="H25">
-        <v>0.865106191985123</v>
-      </c>
-      <c r="I25">
-        <v>0.01104357162420372</v>
-      </c>
-      <c r="J25">
-        <v>0.01104357162420372</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="N25">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="O25">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="P25">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="Q25">
-        <v>17.52670582334802</v>
-      </c>
-      <c r="R25">
-        <v>17.52670582334802</v>
-      </c>
-      <c r="S25">
-        <v>0.003239487349312657</v>
-      </c>
-      <c r="T25">
-        <v>0.003239487349312657</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.562294</v>
+      </c>
+      <c r="H30">
+        <v>3.124588</v>
+      </c>
+      <c r="I30">
+        <v>0.01839158560203802</v>
+      </c>
+      <c r="J30">
+        <v>0.01240965966598085</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.029030333333333</v>
+      </c>
+      <c r="N30">
+        <v>3.087091</v>
+      </c>
+      <c r="O30">
+        <v>0.01385190274270336</v>
+      </c>
+      <c r="P30">
+        <v>0.01540489484662774</v>
+      </c>
+      <c r="Q30">
+        <v>1.607647915584666</v>
+      </c>
+      <c r="R30">
+        <v>9.645887493507999</v>
+      </c>
+      <c r="S30">
+        <v>0.000254758455043534</v>
+      </c>
+      <c r="T30">
+        <v>0.0001911695022368724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.562294</v>
+      </c>
+      <c r="H31">
+        <v>3.124588</v>
+      </c>
+      <c r="I31">
+        <v>0.01839158560203802</v>
+      </c>
+      <c r="J31">
+        <v>0.01240965966598085</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>21.8974465</v>
+      </c>
+      <c r="N31">
+        <v>43.794893</v>
+      </c>
+      <c r="O31">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P31">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q31">
+        <v>34.210249282271</v>
+      </c>
+      <c r="R31">
+        <v>136.840997129084</v>
+      </c>
+      <c r="S31">
+        <v>0.005421180949708099</v>
+      </c>
+      <c r="T31">
+        <v>0.002712018497455076</v>
       </c>
     </row>
   </sheetData>
